--- a/data/cleaned_data.xlsx
+++ b/data/cleaned_data.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Gross_to_peak_ratio</t>
+          <t>Artist_Tour</t>
         </is>
       </c>
     </row>
@@ -537,8 +537,10 @@
           <t>[1]</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>6964285.5</v>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Taylor Swift - The Eras Tour †</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -583,8 +585,10 @@
           <t>[3]</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>5176785.5</v>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Beyoncé - Renaissance World Tour</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -610,7 +614,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sticky &amp; Sweet Tour ‡[4][a]</t>
+          <t>Sticky &amp; Sweet Tour ‡[4][A]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -629,8 +633,10 @@
           <t>[6]</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>4835.294</v>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Madonna - Sticky &amp; Sweet Tour ‡[4][A]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -675,8 +681,10 @@
           <t>[7]</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>2546.795</v>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Pink - Beautiful Trauma World Tour</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -721,8 +729,10 @@
           <t>[8]</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>6522.173</v>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Reputation Stadium Tour</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -748,7 +758,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>The MDNA Tour</t>
+          <t>The Mdna Tour</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -767,8 +777,10 @@
           <t>[9]</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>3467.709</v>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Madonna - The Mdna Tour</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -813,8 +825,10 @@
           <t>[11]</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>2137.405</v>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Celine Dion - Taking Chances World Tour</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -859,8 +873,10 @@
           <t>[12]</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>6282.927</v>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Pink - Summer Carnival †</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -905,8 +921,10 @@
           <t>[13]</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>5226.215</v>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Beyoncé - The Formation World Tour</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -951,8 +969,10 @@
           <t>[14]</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>2945.882</v>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Taylor Swift - The 1989 World Tour</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -965,9 +985,7 @@
       <c r="C12" t="n">
         <v>999</v>
       </c>
-      <c r="D12" t="n">
-        <v>229100000</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
         <v>283202896</v>
       </c>
@@ -997,8 +1015,10 @@
           <t>[15][16]</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1735.606</v>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Beyoncé - The Mrs. Carter Show World Tour</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1043,8 +1063,10 @@
           <t>[18]</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1118.227</v>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Lady Gaga - The Monster Ball Tour *</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1089,8 +1111,10 @@
           <t>[19]</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1350.993</v>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Katy Perry - Prismatic World Tour</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1116,7 +1140,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Living Proof: The Farewell Tour ‡[21][a]</t>
+          <t>Living Proof: The Farewell Tour ‡[21][A]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1135,8 +1159,10 @@
           <t>[20]</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>615.385</v>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Cher - Living Proof: The Farewell Tour ‡[21][A]</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1181,8 +1207,10 @@
           <t>[5]</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>3233.333</v>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Madonna - Confessions Tour</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1227,8 +1255,10 @@
           <t>[22]</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1295.775</v>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Pink - The Truth About Love Tour</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1270,11 +1300,13 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[d]</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1734.694</v>
+          <t>[D]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Lady Gaga - Born This Way Ball</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1319,8 +1351,10 @@
           <t>[4]</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>2070.732</v>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Madonna - Rebel Heart Tour</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1333,9 +1367,7 @@
       <c r="C20" t="n">
         <v>999</v>
       </c>
-      <c r="D20" t="n">
-        <v>167700000</v>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>204486106</v>
       </c>
@@ -1365,8 +1397,10 @@
           <t>[25]</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1385.95</v>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Adele - Adele Live 2016</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1411,8 +1445,10 @@
           <t>[26]</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1744.186</v>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Taylor Swift - The Red Tour</t>
+        </is>
       </c>
     </row>
   </sheetData>
